--- a/inst/templates/nota_cargo_interno.xlsx
+++ b/inst/templates/nota_cargo_interno.xlsx
@@ -39,9 +39,6 @@
     <t xml:space="preserve">Fecha:</t>
   </si>
   <si>
-    <t xml:space="preserve">X/X/20XX</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ref. Nº Nota interna:</t>
   </si>
   <si>
@@ -51,12 +48,15 @@
     <t xml:space="preserve">Servicio:</t>
   </si>
   <si>
+    <t xml:space="preserve">Servicio de estadística</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referencia Proyecto:</t>
+  </si>
+  <si>
     <t xml:space="preserve">XXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">Referencia Proyecto:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centro del IP:</t>
   </si>
   <si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bolsa/Proyecto de cargo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXXXX</t>
   </si>
   <si>
     <t xml:space="preserve">DESCRIPCIÓN</t>
@@ -88,61 +91,7 @@
     <t xml:space="preserve">Total Nota Cargo EUR:</t>
   </si>
   <si>
-    <t xml:space="preserve">Todos los importe facturados se corresponden con las tarifas pubicadas en la web de de Fisabio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Se realizará la transferencia de importe </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">XXXX €</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> a la Bolsa: </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">XXXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, en concepto de pago por servicio prestado, detallado en el apartado anterior.</t>
-    </r>
+    <t xml:space="preserve">Todos los importe facturados se corresponden con las tarifas publicadas en la web de de Fisabio</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -153,14 +102,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
     <numFmt numFmtId="167" formatCode="0\ %"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,6 +147,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -214,55 +169,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -302,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -385,13 +324,6 @@
       <right style="thin"/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -427,304 +359,264 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -811,9 +703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>131040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -827,7 +719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1136520" y="361800"/>
-          <a:ext cx="4896720" cy="647640"/>
+          <a:ext cx="4901760" cy="647280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,122 +735,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:J41"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="n">
+        <f aca="true">TODAY()</f>
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+    </row>
+    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="18"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="s">
+    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>10</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
       <c r="B15" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="25"/>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="9" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="25"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
       <c r="B17" s="24" t="s">
         <v>13</v>
       </c>
@@ -969,39 +870,47 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="9" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
       <c r="B18" s="24"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
       <c r="B19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="9" customFormat="true" ht="26.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
       <c r="B20" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="36"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" s="9" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="36" t="s">
+        <v>8</v>
+      </c>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
@@ -1010,9 +919,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="0"/>
+    </row>
+    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
@@ -1020,155 +930,161 @@
       <c r="F22" s="45"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
       <c r="B23" s="46"/>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="44"/>
       <c r="F23" s="45"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="45"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
       <c r="B25" s="41"/>
       <c r="C25" s="47"/>
       <c r="D25" s="43"/>
       <c r="E25" s="44"/>
       <c r="F25" s="45"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
       <c r="B26" s="41"/>
       <c r="C26" s="47"/>
       <c r="D26" s="43"/>
       <c r="E26" s="44"/>
       <c r="F26" s="45"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
       <c r="B27" s="48"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="49"/>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="52"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="51"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="52"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="51"/>
-    </row>
-    <row r="30" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="52"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="52"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="51"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="52"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="51"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64" t="n">
-        <f aca="false">SUM(F21:F33)</f>
+    <row r="29" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56" t="n">
+        <f aca="false">SUM(F21:F28)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-    </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="66" t="s">
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="F39" s="70"/>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="F40" s="72"/>
-    </row>
-    <row r="41" s="73" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="74" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="59" t="str">
+        <f aca="false">CONCATENATE("Se realizará la transferencia de importe ",F29," € a la Bolsa OTROS00008, en concepto de pago por servicio prestado, detallado en el apartado anterior.")</f>
+        <v>Se realizará la transferencia de importe 0 € a la Bolsa OTROS00008, en concepto de pago por servicio prestado, detallado en el apartado anterior.</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="F35" s="62"/>
+    </row>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="F37" s="62"/>
+    </row>
+    <row r="38" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="63"/>
+      <c r="B38" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-    </row>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+    </row>
+    <row r="44" s="63" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="C17:F18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1182,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1205,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
